--- a/maddenData/2014/roster_update_13_week_13.xlsx
+++ b/maddenData/2014/roster_update_13_week_13.xlsx
@@ -1,16 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15825" windowHeight="11175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15820" windowHeight="11180"/>
   </bookViews>
   <sheets>
     <sheet name="Madden 15 - Roster Update #13" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -1944,9 +1947,6 @@
     <t xml:space="preserve"> SPD: 87 (-1);  ACC: 88 (-2)</t>
   </si>
   <si>
-    <t>J.T.	 Thomas (52)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> TAK: 78 (+2);  PRC: 76 (+1);  ZCV: 79 (+1)</t>
   </si>
   <si>
@@ -3478,6 +3478,9 @@
   </si>
   <si>
     <t>RT:1 (Was RT:2)</t>
+  </si>
+  <si>
+    <t>J.T.	 Thomas III (52)</t>
   </si>
 </sst>
 </file>
@@ -3594,7 +3597,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3629,7 +3632,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3806,7 +3809,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3817,23 +3820,23 @@
   <dimension ref="A1:G508"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="600" activePane="bottomLeft"/>
+      <pane ySplit="600" topLeftCell="A271" activePane="bottomLeft"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A282" sqref="A282"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="138.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="138.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3856,9 +3859,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
@@ -3876,12 +3879,12 @@
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B3" t="s">
         <v>57</v>
@@ -3899,12 +3902,12 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B4" t="s">
         <v>57</v>
@@ -3922,10 +3925,10 @@
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -3945,12 +3948,12 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
@@ -3968,12 +3971,12 @@
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
@@ -3991,10 +3994,10 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>886</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>141</v>
       </c>
@@ -4014,10 +4017,10 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>283</v>
       </c>
@@ -4037,10 +4040,10 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>218</v>
       </c>
@@ -4060,12 +4063,12 @@
         <v>-1</v>
       </c>
       <c r="G10" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B11" t="s">
         <v>57</v>
@@ -4083,12 +4086,12 @@
         <v>-1</v>
       </c>
       <c r="G11" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B12" t="s">
         <v>57</v>
@@ -4106,10 +4109,10 @@
         <v>-1</v>
       </c>
       <c r="G12" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>166</v>
       </c>
@@ -4129,10 +4132,10 @@
         <v>-1</v>
       </c>
       <c r="G13" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>140</v>
       </c>
@@ -4152,12 +4155,12 @@
         <v>-1</v>
       </c>
       <c r="G14" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B15" t="s">
         <v>57</v>
@@ -4175,12 +4178,12 @@
         <v>-2</v>
       </c>
       <c r="G15" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B16" t="s">
         <v>57</v>
@@ -4198,10 +4201,10 @@
         <v>-2</v>
       </c>
       <c r="G16" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>508</v>
       </c>
@@ -4224,9 +4227,9 @@
         <v>509</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B18" t="s">
         <v>153</v>
@@ -4244,10 +4247,10 @@
         <v>4</v>
       </c>
       <c r="G18" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>398</v>
       </c>
@@ -4270,7 +4273,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>171</v>
       </c>
@@ -4293,7 +4296,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>522</v>
       </c>
@@ -4316,7 +4319,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>270</v>
       </c>
@@ -4339,7 +4342,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>595</v>
       </c>
@@ -4362,9 +4365,9 @@
         <v>596</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B24" t="s">
         <v>153</v>
@@ -4382,10 +4385,10 @@
         <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>161</v>
       </c>
@@ -4408,7 +4411,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>417</v>
       </c>
@@ -4431,7 +4434,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>181</v>
       </c>
@@ -4454,9 +4457,9 @@
         <v>501</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B28" t="s">
         <v>153</v>
@@ -4474,12 +4477,12 @@
         <v>1</v>
       </c>
       <c r="G28" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B29" t="s">
         <v>153</v>
@@ -4497,10 +4500,10 @@
         <v>1</v>
       </c>
       <c r="G29" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>387</v>
       </c>
@@ -4523,7 +4526,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>226</v>
       </c>
@@ -4546,7 +4549,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>563</v>
       </c>
@@ -4569,7 +4572,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>175</v>
       </c>
@@ -4592,7 +4595,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>616</v>
       </c>
@@ -4615,12 +4618,12 @@
         <v>617</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B35" t="s">
         <v>1112</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1113</v>
       </c>
       <c r="C35" t="s">
         <v>10</v>
@@ -4635,7 +4638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>232</v>
       </c>
@@ -4658,7 +4661,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>162</v>
       </c>
@@ -4681,7 +4684,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>215</v>
       </c>
@@ -4704,7 +4707,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>227</v>
       </c>
@@ -4727,7 +4730,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>273</v>
       </c>
@@ -4750,7 +4753,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>612</v>
       </c>
@@ -4773,9 +4776,9 @@
         <v>613</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B42" t="s">
         <v>45</v>
@@ -4793,10 +4796,10 @@
         <v>1</v>
       </c>
       <c r="G42" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>249</v>
       </c>
@@ -4816,10 +4819,10 @@
         <v>1</v>
       </c>
       <c r="G43" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>103</v>
       </c>
@@ -4842,7 +4845,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>421</v>
       </c>
@@ -4865,7 +4868,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>278</v>
       </c>
@@ -4888,7 +4891,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>245</v>
       </c>
@@ -4908,10 +4911,10 @@
         <v>-1</v>
       </c>
       <c r="G47" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>285</v>
       </c>
@@ -4934,7 +4937,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>183</v>
       </c>
@@ -4954,10 +4957,10 @@
         <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>184</v>
       </c>
@@ -4977,10 +4980,10 @@
         <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>192</v>
       </c>
@@ -5000,12 +5003,12 @@
         <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B52" t="s">
         <v>156</v>
@@ -5023,10 +5026,10 @@
         <v>2</v>
       </c>
       <c r="G52" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>173</v>
       </c>
@@ -5046,10 +5049,10 @@
         <v>2</v>
       </c>
       <c r="G53" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>268</v>
       </c>
@@ -5069,10 +5072,10 @@
         <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>321</v>
       </c>
@@ -5083,7 +5086,7 @@
         <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E55">
         <v>87</v>
@@ -5092,10 +5095,10 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>243</v>
       </c>
@@ -5115,12 +5118,12 @@
         <v>1</v>
       </c>
       <c r="G56" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B57" t="s">
         <v>156</v>
@@ -5129,7 +5132,7 @@
         <v>13</v>
       </c>
       <c r="D57" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E57">
         <v>85</v>
@@ -5138,12 +5141,12 @@
         <v>1</v>
       </c>
       <c r="G57" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B58" t="s">
         <v>156</v>
@@ -5161,12 +5164,12 @@
         <v>1</v>
       </c>
       <c r="G58" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B59" t="s">
         <v>156</v>
@@ -5184,10 +5187,10 @@
         <v>1</v>
       </c>
       <c r="G59" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>320</v>
       </c>
@@ -5207,10 +5210,10 @@
         <v>1</v>
       </c>
       <c r="G60" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>271</v>
       </c>
@@ -5230,10 +5233,10 @@
         <v>1</v>
       </c>
       <c r="G61" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>319</v>
       </c>
@@ -5244,7 +5247,7 @@
         <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="E62">
         <v>70</v>
@@ -5253,7 +5256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>322</v>
       </c>
@@ -5273,7 +5276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>346</v>
       </c>
@@ -5293,9 +5296,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B65" t="s">
         <v>156</v>
@@ -5313,12 +5316,12 @@
         <v>-1</v>
       </c>
       <c r="G65" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
         <v>905</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>906</v>
       </c>
       <c r="B66" t="s">
         <v>156</v>
@@ -5336,15 +5339,15 @@
         <v>-1</v>
       </c>
       <c r="G66" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B67" t="s">
         <v>1149</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1150</v>
       </c>
       <c r="C67" t="s">
         <v>31</v>
@@ -5359,7 +5362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>193</v>
       </c>
@@ -5379,10 +5382,10 @@
         <v>4</v>
       </c>
       <c r="G68" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>139</v>
       </c>
@@ -5402,10 +5405,10 @@
         <v>2</v>
       </c>
       <c r="G69" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>228</v>
       </c>
@@ -5425,10 +5428,10 @@
         <v>2</v>
       </c>
       <c r="G70" t="s">
-        <v>902</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>125</v>
       </c>
@@ -5448,12 +5451,12 @@
         <v>2</v>
       </c>
       <c r="G71" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B72" t="s">
         <v>18</v>
@@ -5471,10 +5474,10 @@
         <v>2</v>
       </c>
       <c r="G72" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>235</v>
       </c>
@@ -5494,12 +5497,12 @@
         <v>1</v>
       </c>
       <c r="G73" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="B74" t="s">
         <v>18</v>
@@ -5517,10 +5520,10 @@
         <v>1</v>
       </c>
       <c r="G74" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>242</v>
       </c>
@@ -5540,10 +5543,10 @@
         <v>1</v>
       </c>
       <c r="G75" t="s">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>127</v>
       </c>
@@ -5563,12 +5566,12 @@
         <v>1</v>
       </c>
       <c r="G76" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B77" t="s">
         <v>18</v>
@@ -5586,10 +5589,10 @@
         <v>1</v>
       </c>
       <c r="G77" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>160</v>
       </c>
@@ -5609,12 +5612,12 @@
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B79" t="s">
         <v>18</v>
@@ -5632,12 +5635,12 @@
         <v>-1</v>
       </c>
       <c r="G79" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B80" t="s">
         <v>18</v>
@@ -5655,12 +5658,12 @@
         <v>-1</v>
       </c>
       <c r="G80" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B81" t="s">
         <v>18</v>
@@ -5678,12 +5681,12 @@
         <v>-1</v>
       </c>
       <c r="G81" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="B82" t="s">
         <v>347</v>
@@ -5692,7 +5695,7 @@
         <v>8</v>
       </c>
       <c r="D82" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E82">
         <v>69</v>
@@ -5701,7 +5704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>284</v>
       </c>
@@ -5724,7 +5727,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>210</v>
       </c>
@@ -5747,7 +5750,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>474</v>
       </c>
@@ -5770,7 +5773,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>201</v>
       </c>
@@ -5790,10 +5793,10 @@
         <v>2</v>
       </c>
       <c r="G86" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>122</v>
       </c>
@@ -5816,7 +5819,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>197</v>
       </c>
@@ -5839,7 +5842,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>428</v>
       </c>
@@ -5862,7 +5865,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>214</v>
       </c>
@@ -5885,7 +5888,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>471</v>
       </c>
@@ -5908,7 +5911,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>557</v>
       </c>
@@ -5931,7 +5934,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>569</v>
       </c>
@@ -5954,7 +5957,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>174</v>
       </c>
@@ -5977,7 +5980,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>104</v>
       </c>
@@ -6000,7 +6003,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>246</v>
       </c>
@@ -6020,10 +6023,10 @@
         <v>1</v>
       </c>
       <c r="G96" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>143</v>
       </c>
@@ -6043,10 +6046,10 @@
         <v>1</v>
       </c>
       <c r="G97" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>258</v>
       </c>
@@ -6066,10 +6069,10 @@
         <v>1</v>
       </c>
       <c r="G98" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>108</v>
       </c>
@@ -6089,12 +6092,12 @@
         <v>1</v>
       </c>
       <c r="G99" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B100" t="s">
         <v>30</v>
@@ -6112,10 +6115,10 @@
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>326</v>
       </c>
@@ -6135,9 +6138,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B102" t="s">
         <v>30</v>
@@ -6146,7 +6149,7 @@
         <v>21</v>
       </c>
       <c r="D102" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="E102">
         <v>69</v>
@@ -6155,7 +6158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>216</v>
       </c>
@@ -6178,7 +6181,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>110</v>
       </c>
@@ -6201,7 +6204,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>185</v>
       </c>
@@ -6224,9 +6227,9 @@
         <v>624</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B106" t="s">
         <v>30</v>
@@ -6244,10 +6247,10 @@
         <v>-1</v>
       </c>
       <c r="G106" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>349</v>
       </c>
@@ -6258,7 +6261,7 @@
         <v>304</v>
       </c>
       <c r="D107" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E107">
         <v>68</v>
@@ -6267,7 +6270,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>535</v>
       </c>
@@ -6290,18 +6293,18 @@
         <v>537</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B109" t="s">
         <v>25</v>
       </c>
       <c r="C109" t="s">
+        <v>675</v>
+      </c>
+      <c r="D109" t="s">
         <v>676</v>
-      </c>
-      <c r="D109" t="s">
-        <v>677</v>
       </c>
       <c r="E109">
         <v>67</v>
@@ -6310,10 +6313,10 @@
         <v>2</v>
       </c>
       <c r="G109" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>213</v>
       </c>
@@ -6336,7 +6339,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>446</v>
       </c>
@@ -6359,7 +6362,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>229</v>
       </c>
@@ -6382,9 +6385,9 @@
         <v>502</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B113" t="s">
         <v>25</v>
@@ -6402,10 +6405,10 @@
         <v>1</v>
       </c>
       <c r="G113" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>247</v>
       </c>
@@ -6425,10 +6428,10 @@
         <v>1</v>
       </c>
       <c r="G114" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>256</v>
       </c>
@@ -6448,10 +6451,10 @@
         <v>1</v>
       </c>
       <c r="G115" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>260</v>
       </c>
@@ -6471,10 +6474,10 @@
         <v>1</v>
       </c>
       <c r="G116" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>144</v>
       </c>
@@ -6494,9 +6497,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B118" t="s">
         <v>25</v>
@@ -6514,7 +6517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>212</v>
       </c>
@@ -6537,7 +6540,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>457</v>
       </c>
@@ -6560,7 +6563,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>469</v>
       </c>
@@ -6583,7 +6586,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>126</v>
       </c>
@@ -6606,7 +6609,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>497</v>
       </c>
@@ -6629,7 +6632,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>182</v>
       </c>
@@ -6652,7 +6655,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>636</v>
       </c>
@@ -6675,9 +6678,9 @@
         <v>637</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B126" t="s">
         <v>25</v>
@@ -6695,10 +6698,10 @@
         <v>-1</v>
       </c>
       <c r="G126" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>133</v>
       </c>
@@ -6718,10 +6721,10 @@
         <v>-1</v>
       </c>
       <c r="G127" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>123</v>
       </c>
@@ -6744,7 +6747,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>224</v>
       </c>
@@ -6767,7 +6770,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>272</v>
       </c>
@@ -6790,12 +6793,12 @@
         <v>540</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B131" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="C131" t="s">
         <v>10</v>
@@ -6810,15 +6813,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B132" t="s">
         <v>1047</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
         <v>1048</v>
-      </c>
-      <c r="C132" t="s">
-        <v>1049</v>
       </c>
       <c r="D132" t="s">
         <v>142</v>
@@ -6830,9 +6833,9 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B133" t="s">
         <v>35</v>
@@ -6850,12 +6853,12 @@
         <v>2</v>
       </c>
       <c r="G133" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B134" t="s">
         <v>35</v>
@@ -6873,12 +6876,12 @@
         <v>1</v>
       </c>
       <c r="G134" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B135" t="s">
         <v>35</v>
@@ -6896,10 +6899,10 @@
         <v>1</v>
       </c>
       <c r="G135" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>198</v>
       </c>
@@ -6919,10 +6922,10 @@
         <v>-1</v>
       </c>
       <c r="G136" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>299</v>
       </c>
@@ -6942,10 +6945,10 @@
         <v>-1</v>
       </c>
       <c r="G137" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>295</v>
       </c>
@@ -6965,10 +6968,10 @@
         <v>-1</v>
       </c>
       <c r="G138" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>186</v>
       </c>
@@ -6988,10 +6991,10 @@
         <v>-1</v>
       </c>
       <c r="G139" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>292</v>
       </c>
@@ -7011,12 +7014,12 @@
         <v>-1</v>
       </c>
       <c r="G140" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B141" t="s">
         <v>35</v>
@@ -7034,12 +7037,12 @@
         <v>-1</v>
       </c>
       <c r="G141" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B142" t="s">
         <v>35</v>
@@ -7057,12 +7060,12 @@
         <v>-1</v>
       </c>
       <c r="G142" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B143" t="s">
         <v>35</v>
@@ -7080,10 +7083,10 @@
         <v>-1</v>
       </c>
       <c r="G143" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>307</v>
       </c>
@@ -7103,10 +7106,10 @@
         <v>-2</v>
       </c>
       <c r="G144" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>361</v>
       </c>
@@ -7129,7 +7132,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>410</v>
       </c>
@@ -7152,7 +7155,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" t="s">
         <v>455</v>
       </c>
@@ -7175,7 +7178,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" t="s">
         <v>477</v>
       </c>
@@ -7198,7 +7201,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" t="s">
         <v>330</v>
       </c>
@@ -7221,7 +7224,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
       <c r="A150" t="s">
         <v>597</v>
       </c>
@@ -7244,7 +7247,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" t="s">
         <v>618</v>
       </c>
@@ -7267,7 +7270,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" t="s">
         <v>332</v>
       </c>
@@ -7287,12 +7290,12 @@
         <v>1</v>
       </c>
       <c r="G152" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B153" t="s">
         <v>287</v>
@@ -7310,12 +7313,12 @@
         <v>1</v>
       </c>
       <c r="G153" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B154" t="s">
         <v>287</v>
@@ -7333,10 +7336,10 @@
         <v>1</v>
       </c>
       <c r="G154" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
       <c r="A155" t="s">
         <v>315</v>
       </c>
@@ -7356,9 +7359,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B156" t="s">
         <v>287</v>
@@ -7376,7 +7379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" t="s">
         <v>614</v>
       </c>
@@ -7399,7 +7402,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" t="s">
         <v>293</v>
       </c>
@@ -7419,10 +7422,10 @@
         <v>-1</v>
       </c>
       <c r="G158" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
       <c r="A159" t="s">
         <v>331</v>
       </c>
@@ -7442,12 +7445,12 @@
         <v>-1</v>
       </c>
       <c r="G159" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B160" t="s">
         <v>287</v>
@@ -7465,15 +7468,15 @@
         <v>-1</v>
       </c>
       <c r="G160" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
       <c r="A161" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B161" t="s">
         <v>1089</v>
-      </c>
-      <c r="B161" t="s">
-        <v>1090</v>
       </c>
       <c r="C161" t="s">
         <v>51</v>
@@ -7488,7 +7491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" t="s">
         <v>337</v>
       </c>
@@ -7511,7 +7514,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" t="s">
         <v>113</v>
       </c>
@@ -7534,7 +7537,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7">
       <c r="A164" t="s">
         <v>115</v>
       </c>
@@ -7557,7 +7560,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7">
       <c r="A165" t="s">
         <v>599</v>
       </c>
@@ -7580,7 +7583,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7">
       <c r="A166" t="s">
         <v>129</v>
       </c>
@@ -7600,12 +7603,12 @@
         <v>1</v>
       </c>
       <c r="G166" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
       <c r="A167" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B167" t="s">
         <v>38</v>
@@ -7614,7 +7617,7 @@
         <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="E167">
         <v>77</v>
@@ -7623,9 +7626,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B168" t="s">
         <v>38</v>
@@ -7634,7 +7637,7 @@
         <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="E168">
         <v>69</v>
@@ -7643,7 +7646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" t="s">
         <v>134</v>
       </c>
@@ -7666,7 +7669,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" t="s">
         <v>282</v>
       </c>
@@ -7689,7 +7692,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7">
       <c r="A171" t="s">
         <v>606</v>
       </c>
@@ -7712,7 +7715,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" t="s">
         <v>629</v>
       </c>
@@ -7735,9 +7738,9 @@
         <v>630</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B173" t="s">
         <v>38</v>
@@ -7755,10 +7758,10 @@
         <v>-1</v>
       </c>
       <c r="G173" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
       <c r="A174" t="s">
         <v>336</v>
       </c>
@@ -7778,10 +7781,10 @@
         <v>-1</v>
       </c>
       <c r="G174" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
       <c r="A175" t="s">
         <v>180</v>
       </c>
@@ -7804,12 +7807,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7">
       <c r="A176" t="s">
         <v>353</v>
       </c>
       <c r="B176" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="C176" t="s">
         <v>10</v>
@@ -7824,12 +7827,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B177" t="s">
         <v>1136</v>
-      </c>
-      <c r="B177" t="s">
-        <v>1137</v>
       </c>
       <c r="C177" t="s">
         <v>69</v>
@@ -7844,9 +7847,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7">
       <c r="A178" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B178" t="s">
         <v>40</v>
@@ -7864,10 +7867,10 @@
         <v>3</v>
       </c>
       <c r="G178" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
       <c r="A179" t="s">
         <v>290</v>
       </c>
@@ -7890,7 +7893,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" t="s">
         <v>573</v>
       </c>
@@ -7913,7 +7916,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" t="s">
         <v>288</v>
       </c>
@@ -7936,7 +7939,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" t="s">
         <v>298</v>
       </c>
@@ -7959,7 +7962,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" t="s">
         <v>524</v>
       </c>
@@ -7982,7 +7985,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" t="s">
         <v>528</v>
       </c>
@@ -8005,7 +8008,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" t="s">
         <v>317</v>
       </c>
@@ -8028,9 +8031,9 @@
         <v>601</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B186" t="s">
         <v>40</v>
@@ -8048,10 +8051,10 @@
         <v>1</v>
       </c>
       <c r="G186" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
       <c r="A187" t="s">
         <v>339</v>
       </c>
@@ -8071,10 +8074,10 @@
         <v>1</v>
       </c>
       <c r="G187" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
       <c r="A188" t="s">
         <v>200</v>
       </c>
@@ -8094,10 +8097,10 @@
         <v>1</v>
       </c>
       <c r="G188" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
       <c r="A189" t="s">
         <v>308</v>
       </c>
@@ -8117,12 +8120,12 @@
         <v>1</v>
       </c>
       <c r="G189" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
       <c r="A190" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B190" t="s">
         <v>40</v>
@@ -8140,7 +8143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" t="s">
         <v>316</v>
       </c>
@@ -8151,7 +8154,7 @@
         <v>13</v>
       </c>
       <c r="D191" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="E191">
         <v>63</v>
@@ -8160,7 +8163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" t="s">
         <v>344</v>
       </c>
@@ -8171,7 +8174,7 @@
         <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="E192">
         <v>72</v>
@@ -8180,7 +8183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" t="s">
         <v>459</v>
       </c>
@@ -8203,9 +8206,9 @@
         <v>460</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B194" t="s">
         <v>40</v>
@@ -8223,12 +8226,12 @@
         <v>-1</v>
       </c>
       <c r="G194" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
       <c r="A195" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B195" t="s">
         <v>40</v>
@@ -8246,10 +8249,10 @@
         <v>-2</v>
       </c>
       <c r="G195" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
       <c r="A196" t="s">
         <v>340</v>
       </c>
@@ -8269,12 +8272,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B197" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C197" t="s">
         <v>19</v>
@@ -8289,15 +8292,15 @@
         <v>2</v>
       </c>
       <c r="G197" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
       <c r="A198" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B198" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C198" t="s">
         <v>70</v>
@@ -8312,15 +8315,15 @@
         <v>2</v>
       </c>
       <c r="G198" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
       <c r="A199" t="s">
+        <v>823</v>
+      </c>
+      <c r="B199" t="s">
         <v>824</v>
-      </c>
-      <c r="B199" t="s">
-        <v>825</v>
       </c>
       <c r="C199" t="s">
         <v>50</v>
@@ -8335,15 +8338,15 @@
         <v>1</v>
       </c>
       <c r="G199" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B200" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C200" t="s">
         <v>21</v>
@@ -8358,15 +8361,15 @@
         <v>1</v>
       </c>
       <c r="G200" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
       <c r="A201" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B201" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -8381,15 +8384,15 @@
         <v>1</v>
       </c>
       <c r="G201" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
       <c r="A202" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B202" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C202" t="s">
         <v>22</v>
@@ -8404,15 +8407,15 @@
         <v>-1</v>
       </c>
       <c r="G202" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
       <c r="A203" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B203" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C203" t="s">
         <v>69</v>
@@ -8427,15 +8430,15 @@
         <v>-1</v>
       </c>
       <c r="G203" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
       <c r="A204" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B204" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C204" t="s">
         <v>69</v>
@@ -8450,15 +8453,15 @@
         <v>-1</v>
       </c>
       <c r="G204" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
       <c r="A205" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B205" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C205" t="s">
         <v>13</v>
@@ -8473,15 +8476,15 @@
         <v>-1</v>
       </c>
       <c r="G205" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
       <c r="A206" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B206" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C206" t="s">
         <v>13</v>
@@ -8496,15 +8499,15 @@
         <v>-2</v>
       </c>
       <c r="G206" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
       <c r="A207" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B207" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C207" t="s">
         <v>31</v>
@@ -8519,12 +8522,12 @@
         <v>-2</v>
       </c>
       <c r="G207" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
       <c r="A208" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B208" t="s">
         <v>41</v>
@@ -8542,10 +8545,10 @@
         <v>2</v>
       </c>
       <c r="G208" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
       <c r="A209" t="s">
         <v>275</v>
       </c>
@@ -8565,12 +8568,12 @@
         <v>2</v>
       </c>
       <c r="G209" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
       <c r="A210" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B210" t="s">
         <v>41</v>
@@ -8588,10 +8591,10 @@
         <v>1</v>
       </c>
       <c r="G210" t="s">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
       <c r="A211" t="s">
         <v>120</v>
       </c>
@@ -8611,10 +8614,10 @@
         <v>1</v>
       </c>
       <c r="G211" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
       <c r="A212" t="s">
         <v>265</v>
       </c>
@@ -8634,12 +8637,12 @@
         <v>0</v>
       </c>
       <c r="G212" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
       <c r="A213" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B213" t="s">
         <v>41</v>
@@ -8657,12 +8660,12 @@
         <v>-1</v>
       </c>
       <c r="G213" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
       <c r="A214" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B214" t="s">
         <v>41</v>
@@ -8680,12 +8683,12 @@
         <v>-1</v>
       </c>
       <c r="G214" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
       <c r="A215" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B215" t="s">
         <v>41</v>
@@ -8703,10 +8706,10 @@
         <v>-1</v>
       </c>
       <c r="G215" t="s">
-        <v>898</v>
-      </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
       <c r="A216" t="s">
         <v>244</v>
       </c>
@@ -8726,10 +8729,10 @@
         <v>-1</v>
       </c>
       <c r="G216" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
       <c r="A217" t="s">
         <v>253</v>
       </c>
@@ -8749,12 +8752,12 @@
         <v>-1</v>
       </c>
       <c r="G217" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
       <c r="A218" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="B218" t="s">
         <v>41</v>
@@ -8772,10 +8775,10 @@
         <v>-1</v>
       </c>
       <c r="G218" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
       <c r="A219" t="s">
         <v>149</v>
       </c>
@@ -8795,12 +8798,12 @@
         <v>-1</v>
       </c>
       <c r="G219" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
       <c r="A220" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B220" t="s">
         <v>41</v>
@@ -8818,12 +8821,12 @@
         <v>-1</v>
       </c>
       <c r="G220" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
       <c r="A221" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B221" t="s">
         <v>41</v>
@@ -8841,12 +8844,12 @@
         <v>-1</v>
       </c>
       <c r="G221" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
       <c r="A222" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B222" t="s">
         <v>41</v>
@@ -8864,12 +8867,12 @@
         <v>-2</v>
       </c>
       <c r="G222" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
       <c r="A223" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B223" t="s">
         <v>41</v>
@@ -8887,12 +8890,12 @@
         <v>-3</v>
       </c>
       <c r="G223" t="s">
-        <v>876</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
       <c r="A224" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="B224" t="s">
         <v>24</v>
@@ -8910,10 +8913,10 @@
         <v>2</v>
       </c>
       <c r="G224" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
       <c r="A225" t="s">
         <v>135</v>
       </c>
@@ -8936,7 +8939,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7">
       <c r="A226" t="s">
         <v>402</v>
       </c>
@@ -8959,7 +8962,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7">
       <c r="A227" t="s">
         <v>172</v>
       </c>
@@ -8982,7 +8985,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7">
       <c r="A228" t="s">
         <v>178</v>
       </c>
@@ -9005,7 +9008,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7">
       <c r="A229" t="s">
         <v>608</v>
       </c>
@@ -9028,7 +9031,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7">
       <c r="A230" t="s">
         <v>189</v>
       </c>
@@ -9048,12 +9051,12 @@
         <v>1</v>
       </c>
       <c r="G230" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
       <c r="A231" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B231" t="s">
         <v>24</v>
@@ -9071,12 +9074,12 @@
         <v>1</v>
       </c>
       <c r="G231" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
       <c r="A232" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B232" t="s">
         <v>24</v>
@@ -9094,12 +9097,12 @@
         <v>1</v>
       </c>
       <c r="G232" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
       <c r="A233" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B233" t="s">
         <v>24</v>
@@ -9117,10 +9120,10 @@
         <v>1</v>
       </c>
       <c r="G233" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
       <c r="A234" t="s">
         <v>124</v>
       </c>
@@ -9143,7 +9146,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7">
       <c r="A235" t="s">
         <v>512</v>
       </c>
@@ -9166,7 +9169,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7">
       <c r="A236" t="s">
         <v>575</v>
       </c>
@@ -9189,7 +9192,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7">
       <c r="A237" t="s">
         <v>131</v>
       </c>
@@ -9209,10 +9212,10 @@
         <v>-1</v>
       </c>
       <c r="G237" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
       <c r="A238" t="s">
         <v>577</v>
       </c>
@@ -9235,7 +9238,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7">
       <c r="A239" t="s">
         <v>151</v>
       </c>
@@ -9255,10 +9258,10 @@
         <v>2</v>
       </c>
       <c r="G239" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
       <c r="A240" t="s">
         <v>372</v>
       </c>
@@ -9281,7 +9284,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7">
       <c r="A241" t="s">
         <v>158</v>
       </c>
@@ -9304,7 +9307,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7">
       <c r="A242" t="s">
         <v>530</v>
       </c>
@@ -9327,7 +9330,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7">
       <c r="A243" t="s">
         <v>541</v>
       </c>
@@ -9350,7 +9353,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7">
       <c r="A244" t="s">
         <v>155</v>
       </c>
@@ -9370,10 +9373,10 @@
         <v>1</v>
       </c>
       <c r="G244" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7">
       <c r="A245" t="s">
         <v>343</v>
       </c>
@@ -9396,7 +9399,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7">
       <c r="A246" t="s">
         <v>366</v>
       </c>
@@ -9419,7 +9422,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7">
       <c r="A247" t="s">
         <v>239</v>
       </c>
@@ -9442,7 +9445,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7">
       <c r="A248" t="s">
         <v>191</v>
       </c>
@@ -9462,10 +9465,10 @@
         <v>-1</v>
       </c>
       <c r="G248" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7">
       <c r="A249" t="s">
         <v>342</v>
       </c>
@@ -9488,18 +9491,18 @@
         <v>492</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7">
       <c r="A250" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B250" t="s">
         <v>1143</v>
-      </c>
-      <c r="B250" t="s">
-        <v>1144</v>
       </c>
       <c r="C250" t="s">
         <v>19</v>
       </c>
       <c r="D250" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E250">
         <v>69</v>
@@ -9508,18 +9511,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7">
       <c r="A251" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B251" t="s">
         <v>1124</v>
-      </c>
-      <c r="B251" t="s">
-        <v>1125</v>
       </c>
       <c r="C251" t="s">
         <v>8</v>
       </c>
       <c r="D251" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="E251">
         <v>68</v>
@@ -9528,7 +9531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7">
       <c r="A252" t="s">
         <v>324</v>
       </c>
@@ -9548,12 +9551,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7">
       <c r="A253" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B253" t="s">
         <v>1094</v>
-      </c>
-      <c r="B253" t="s">
-        <v>1095</v>
       </c>
       <c r="C253" t="s">
         <v>10</v>
@@ -9568,12 +9571,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7">
       <c r="A254" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="B254" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="C254" t="s">
         <v>32</v>
@@ -9588,7 +9591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7">
       <c r="A255" t="s">
         <v>335</v>
       </c>
@@ -9599,7 +9602,7 @@
         <v>13</v>
       </c>
       <c r="D255" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="E255">
         <v>69</v>
@@ -9608,9 +9611,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7">
       <c r="A256" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B256" t="s">
         <v>341</v>
@@ -9619,7 +9622,7 @@
         <v>37</v>
       </c>
       <c r="D256" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="E256">
         <v>61</v>
@@ -9628,12 +9631,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7">
       <c r="A257" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B257" t="s">
         <v>1108</v>
-      </c>
-      <c r="B257" t="s">
-        <v>1109</v>
       </c>
       <c r="C257" t="s">
         <v>10</v>
@@ -9648,18 +9651,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7">
       <c r="A258" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B258" t="s">
         <v>1128</v>
-      </c>
-      <c r="B258" t="s">
-        <v>1129</v>
       </c>
       <c r="C258" t="s">
         <v>19</v>
       </c>
       <c r="D258" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="E258">
         <v>55</v>
@@ -9668,7 +9671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7">
       <c r="A259" t="s">
         <v>220</v>
       </c>
@@ -9688,9 +9691,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7">
       <c r="A260" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B260" t="s">
         <v>55</v>
@@ -9699,7 +9702,7 @@
         <v>10</v>
       </c>
       <c r="D260" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E260">
         <v>84</v>
@@ -9708,12 +9711,12 @@
         <v>4</v>
       </c>
       <c r="G260" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
       <c r="A261" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B261" t="s">
         <v>55</v>
@@ -9731,10 +9734,10 @@
         <v>2</v>
       </c>
       <c r="G261" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
       <c r="A262" t="s">
         <v>196</v>
       </c>
@@ -9754,10 +9757,10 @@
         <v>1</v>
       </c>
       <c r="G262" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
       <c r="A263" t="s">
         <v>137</v>
       </c>
@@ -9777,12 +9780,12 @@
         <v>1</v>
       </c>
       <c r="G263" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
       <c r="A264" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B264" t="s">
         <v>55</v>
@@ -9800,10 +9803,10 @@
         <v>1</v>
       </c>
       <c r="G264" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
       <c r="A265" t="s">
         <v>240</v>
       </c>
@@ -9823,10 +9826,10 @@
         <v>1</v>
       </c>
       <c r="G265" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
       <c r="A266" t="s">
         <v>225</v>
       </c>
@@ -9846,12 +9849,12 @@
         <v>1</v>
       </c>
       <c r="G266" t="s">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
       <c r="A267" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B267" t="s">
         <v>55</v>
@@ -9869,12 +9872,12 @@
         <v>1</v>
       </c>
       <c r="G267" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
       <c r="A268" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B268" t="s">
         <v>55</v>
@@ -9892,10 +9895,10 @@
         <v>1</v>
       </c>
       <c r="G268" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
       <c r="A269" t="s">
         <v>248</v>
       </c>
@@ -9915,7 +9918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7">
       <c r="A270" t="s">
         <v>234</v>
       </c>
@@ -9935,12 +9938,12 @@
         <v>-1</v>
       </c>
       <c r="G270" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
       <c r="A271" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B271" t="s">
         <v>55</v>
@@ -9958,12 +9961,12 @@
         <v>-1</v>
       </c>
       <c r="G271" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
       <c r="A272" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B272" t="s">
         <v>55</v>
@@ -9981,12 +9984,12 @@
         <v>-1</v>
       </c>
       <c r="G272" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
       <c r="A273" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B273" t="s">
         <v>55</v>
@@ -9995,7 +9998,7 @@
         <v>26</v>
       </c>
       <c r="D273" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="E273">
         <v>69</v>
@@ -10004,10 +10007,10 @@
         <v>-1</v>
       </c>
       <c r="G273" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
       <c r="A274" t="s">
         <v>203</v>
       </c>
@@ -10027,12 +10030,12 @@
         <v>-1</v>
       </c>
       <c r="G274" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
       <c r="A275" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B275" t="s">
         <v>55</v>
@@ -10050,10 +10053,10 @@
         <v>-1</v>
       </c>
       <c r="G275" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
       <c r="A276" t="s">
         <v>394</v>
       </c>
@@ -10076,7 +10079,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7">
       <c r="A277" t="s">
         <v>583</v>
       </c>
@@ -10099,7 +10102,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7">
       <c r="A278" t="s">
         <v>585</v>
       </c>
@@ -10122,7 +10125,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7">
       <c r="A279" t="s">
         <v>437</v>
       </c>
@@ -10145,7 +10148,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7">
       <c r="A280" t="s">
         <v>439</v>
       </c>
@@ -10168,7 +10171,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7">
       <c r="A281" t="s">
         <v>483</v>
       </c>
@@ -10191,9 +10194,9 @@
         <v>484</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7">
       <c r="A282" t="s">
-        <v>641</v>
+        <v>1152</v>
       </c>
       <c r="B282" t="s">
         <v>23</v>
@@ -10211,10 +10214,10 @@
         <v>1</v>
       </c>
       <c r="G282" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
       <c r="A283" t="s">
         <v>383</v>
       </c>
@@ -10237,7 +10240,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7">
       <c r="A284" t="s">
         <v>351</v>
       </c>
@@ -10260,7 +10263,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7">
       <c r="A285" t="s">
         <v>546</v>
       </c>
@@ -10283,7 +10286,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7">
       <c r="A286" t="s">
         <v>352</v>
       </c>
@@ -10306,7 +10309,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7">
       <c r="A287" t="s">
         <v>621</v>
       </c>
@@ -10329,7 +10332,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7">
       <c r="A288" t="s">
         <v>625</v>
       </c>
@@ -10352,9 +10355,9 @@
         <v>626</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7">
       <c r="A289" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B289" t="s">
         <v>23</v>
@@ -10372,12 +10375,12 @@
         <v>-1</v>
       </c>
       <c r="G289" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" t="s">
         <v>743</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>744</v>
       </c>
       <c r="B290" t="s">
         <v>23</v>
@@ -10395,10 +10398,10 @@
         <v>-1</v>
       </c>
       <c r="G290" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
       <c r="A291" t="s">
         <v>194</v>
       </c>
@@ -10418,12 +10421,12 @@
         <v>-1</v>
       </c>
       <c r="G291" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
       <c r="A292" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="B292" t="s">
         <v>23</v>
@@ -10441,10 +10444,10 @@
         <v>-1</v>
       </c>
       <c r="G292" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
       <c r="A293" t="s">
         <v>486</v>
       </c>
@@ -10467,7 +10470,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7">
       <c r="A294" t="s">
         <v>581</v>
       </c>
@@ -10490,9 +10493,9 @@
         <v>582</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7">
       <c r="A295" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B295" t="s">
         <v>23</v>
@@ -10510,15 +10513,15 @@
         <v>-2</v>
       </c>
       <c r="G295" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
       <c r="A296" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B296" t="s">
         <v>1116</v>
-      </c>
-      <c r="B296" t="s">
-        <v>1117</v>
       </c>
       <c r="C296" t="s">
         <v>10</v>
@@ -10533,12 +10536,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7">
       <c r="A297" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B297" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C297" t="s">
         <v>26</v>
@@ -10553,15 +10556,15 @@
         <v>1</v>
       </c>
       <c r="G297" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
       <c r="A298" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B298" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C298" t="s">
         <v>15</v>
@@ -10576,15 +10579,15 @@
         <v>1</v>
       </c>
       <c r="G298" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
       <c r="A299" t="s">
+        <v>797</v>
+      </c>
+      <c r="B299" t="s">
         <v>798</v>
-      </c>
-      <c r="B299" t="s">
-        <v>799</v>
       </c>
       <c r="C299" t="s">
         <v>10</v>
@@ -10599,15 +10602,15 @@
         <v>-1</v>
       </c>
       <c r="G299" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
       <c r="A300" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B300" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C300" t="s">
         <v>31</v>
@@ -10622,15 +10625,15 @@
         <v>-1</v>
       </c>
       <c r="G300" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
       <c r="A301" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B301" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C301" t="s">
         <v>13</v>
@@ -10645,15 +10648,15 @@
         <v>-1</v>
       </c>
       <c r="G301" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
       <c r="A302" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B302" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C302" t="s">
         <v>16</v>
@@ -10668,15 +10671,15 @@
         <v>-1</v>
       </c>
       <c r="G302" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
       <c r="A303" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B303" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C303" t="s">
         <v>13</v>
@@ -10691,15 +10694,15 @@
         <v>-1</v>
       </c>
       <c r="G303" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
       <c r="A304" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B304" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C304" t="s">
         <v>50</v>
@@ -10714,15 +10717,15 @@
         <v>-2</v>
       </c>
       <c r="G304" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
       <c r="A305" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B305" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C305" t="s">
         <v>69</v>
@@ -10737,12 +10740,12 @@
         <v>-2</v>
       </c>
       <c r="G305" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
       <c r="A306" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B306" t="s">
         <v>65</v>
@@ -10760,10 +10763,10 @@
         <v>2</v>
       </c>
       <c r="G306" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
       <c r="A307" t="s">
         <v>300</v>
       </c>
@@ -10786,7 +10789,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7">
       <c r="A308" t="s">
         <v>309</v>
       </c>
@@ -10809,7 +10812,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7">
       <c r="A309" t="s">
         <v>415</v>
       </c>
@@ -10832,7 +10835,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7">
       <c r="A310" t="s">
         <v>453</v>
       </c>
@@ -10855,7 +10858,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7">
       <c r="A311" t="s">
         <v>520</v>
       </c>
@@ -10878,7 +10881,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7">
       <c r="A312" t="s">
         <v>311</v>
       </c>
@@ -10901,7 +10904,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7">
       <c r="A313" t="s">
         <v>168</v>
       </c>
@@ -10924,7 +10927,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7">
       <c r="A314" t="s">
         <v>297</v>
       </c>
@@ -10947,7 +10950,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7">
       <c r="A315" t="s">
         <v>187</v>
       </c>
@@ -10967,12 +10970,12 @@
         <v>-1</v>
       </c>
       <c r="G315" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
       <c r="A316" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B316" t="s">
         <v>65</v>
@@ -10990,12 +10993,12 @@
         <v>-1</v>
       </c>
       <c r="G316" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
       <c r="A317" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B317" t="s">
         <v>65</v>
@@ -11013,10 +11016,10 @@
         <v>-1</v>
       </c>
       <c r="G317" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
       <c r="A318" t="s">
         <v>306</v>
       </c>
@@ -11039,7 +11042,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7">
       <c r="A319" t="s">
         <v>463</v>
       </c>
@@ -11062,7 +11065,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7">
       <c r="A320" t="s">
         <v>516</v>
       </c>
@@ -11085,7 +11088,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7">
       <c r="A321" t="s">
         <v>385</v>
       </c>
@@ -11108,7 +11111,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7">
       <c r="A322" t="s">
         <v>588</v>
       </c>
@@ -11131,7 +11134,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7">
       <c r="A323" t="s">
         <v>518</v>
       </c>
@@ -11154,7 +11157,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7">
       <c r="A324" t="s">
         <v>571</v>
       </c>
@@ -11177,7 +11180,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7">
       <c r="A325" t="s">
         <v>604</v>
       </c>
@@ -11200,9 +11203,9 @@
         <v>605</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B326" t="s">
         <v>159</v>
@@ -11220,10 +11223,10 @@
         <v>1</v>
       </c>
       <c r="G326" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
       <c r="A327" t="s">
         <v>262</v>
       </c>
@@ -11243,12 +11246,12 @@
         <v>1</v>
       </c>
       <c r="G327" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
       <c r="A328" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="B328" t="s">
         <v>159</v>
@@ -11266,10 +11269,10 @@
         <v>1</v>
       </c>
       <c r="G328" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
       <c r="A329" t="s">
         <v>230</v>
       </c>
@@ -11292,7 +11295,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7">
       <c r="A330" t="s">
         <v>634</v>
       </c>
@@ -11315,9 +11318,9 @@
         <v>635</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7">
       <c r="A331" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B331" t="s">
         <v>159</v>
@@ -11335,10 +11338,10 @@
         <v>-1</v>
       </c>
       <c r="G331" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
       <c r="A332" t="s">
         <v>435</v>
       </c>
@@ -11361,7 +11364,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7">
       <c r="A333" t="s">
         <v>544</v>
       </c>
@@ -11384,7 +11387,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7">
       <c r="A334" t="s">
         <v>377</v>
       </c>
@@ -11407,7 +11410,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7">
       <c r="A335" t="s">
         <v>425</v>
       </c>
@@ -11430,7 +11433,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7">
       <c r="A336" t="s">
         <v>631</v>
       </c>
@@ -11453,7 +11456,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7">
       <c r="A337" t="s">
         <v>375</v>
       </c>
@@ -11476,7 +11479,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7">
       <c r="A338" t="s">
         <v>391</v>
       </c>
@@ -11499,7 +11502,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7">
       <c r="A339" t="s">
         <v>313</v>
       </c>
@@ -11522,7 +11525,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7">
       <c r="A340" t="s">
         <v>301</v>
       </c>
@@ -11542,12 +11545,12 @@
         <v>1</v>
       </c>
       <c r="G340" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
       <c r="A341" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B341" t="s">
         <v>62</v>
@@ -11565,10 +11568,10 @@
         <v>1</v>
       </c>
       <c r="G341" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
       <c r="A342" t="s">
         <v>303</v>
       </c>
@@ -11588,10 +11591,10 @@
         <v>1</v>
       </c>
       <c r="G342" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
       <c r="A343" t="s">
         <v>314</v>
       </c>
@@ -11611,10 +11614,10 @@
         <v>1</v>
       </c>
       <c r="G343" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
       <c r="A344" t="s">
         <v>526</v>
       </c>
@@ -11637,9 +11640,9 @@
         <v>527</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7">
       <c r="A345" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B345" t="s">
         <v>62</v>
@@ -11657,12 +11660,12 @@
         <v>0</v>
       </c>
       <c r="G345" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
       <c r="A346" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B346" t="s">
         <v>62</v>
@@ -11680,9 +11683,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7">
       <c r="A347" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B347" t="s">
         <v>62</v>
@@ -11691,7 +11694,7 @@
         <v>26</v>
       </c>
       <c r="D347" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="E347">
         <v>64</v>
@@ -11700,7 +11703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7">
       <c r="A348" t="s">
         <v>396</v>
       </c>
@@ -11723,7 +11726,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7">
       <c r="A349" t="s">
         <v>302</v>
       </c>
@@ -11743,21 +11746,21 @@
         <v>-1</v>
       </c>
       <c r="G349" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
       <c r="A350" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B350" t="s">
         <v>1121</v>
-      </c>
-      <c r="B350" t="s">
-        <v>1122</v>
       </c>
       <c r="C350" t="s">
         <v>8</v>
       </c>
       <c r="D350" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E350">
         <v>81</v>
@@ -11766,7 +11769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7">
       <c r="A351" t="s">
         <v>164</v>
       </c>
@@ -11786,10 +11789,10 @@
         <v>3</v>
       </c>
       <c r="G351" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
       <c r="A352" t="s">
         <v>441</v>
       </c>
@@ -11812,7 +11815,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7">
       <c r="A353" t="s">
         <v>510</v>
       </c>
@@ -11835,7 +11838,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7">
       <c r="A354" t="s">
         <v>106</v>
       </c>
@@ -11855,10 +11858,10 @@
         <v>2</v>
       </c>
       <c r="G354" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
       <c r="A355" t="s">
         <v>364</v>
       </c>
@@ -11881,7 +11884,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7">
       <c r="A356" t="s">
         <v>461</v>
       </c>
@@ -11904,7 +11907,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7">
       <c r="A357" t="s">
         <v>548</v>
       </c>
@@ -11927,7 +11930,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7">
       <c r="A358" t="s">
         <v>565</v>
       </c>
@@ -11950,7 +11953,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7">
       <c r="A359" t="s">
         <v>318</v>
       </c>
@@ -11973,7 +11976,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7">
       <c r="A360" t="s">
         <v>296</v>
       </c>
@@ -11996,9 +11999,9 @@
         <v>627</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7">
       <c r="A361" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B361" t="s">
         <v>7</v>
@@ -12016,12 +12019,12 @@
         <v>1</v>
       </c>
       <c r="G361" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
       <c r="A362" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="B362" t="s">
         <v>7</v>
@@ -12039,10 +12042,10 @@
         <v>1</v>
       </c>
       <c r="G362" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
       <c r="A363" t="s">
         <v>119</v>
       </c>
@@ -12062,10 +12065,10 @@
         <v>1</v>
       </c>
       <c r="G363" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
       <c r="A364" t="s">
         <v>176</v>
       </c>
@@ -12088,7 +12091,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7">
       <c r="A365" t="s">
         <v>179</v>
       </c>
@@ -12111,7 +12114,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7">
       <c r="A366" t="s">
         <v>107</v>
       </c>
@@ -12131,10 +12134,10 @@
         <v>-1</v>
       </c>
       <c r="G366" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
       <c r="A367" t="s">
         <v>219</v>
       </c>
@@ -12157,7 +12160,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7">
       <c r="A368" t="s">
         <v>121</v>
       </c>
@@ -12180,7 +12183,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7">
       <c r="A369" t="s">
         <v>561</v>
       </c>
@@ -12203,9 +12206,9 @@
         <v>562</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7">
       <c r="A370" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B370" t="s">
         <v>67</v>
@@ -12223,10 +12226,10 @@
         <v>1</v>
       </c>
       <c r="G370" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
       <c r="A371" t="s">
         <v>400</v>
       </c>
@@ -12249,7 +12252,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7">
       <c r="A372" t="s">
         <v>467</v>
       </c>
@@ -12272,7 +12275,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7">
       <c r="A373" t="s">
         <v>276</v>
       </c>
@@ -12295,7 +12298,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7">
       <c r="A374" t="s">
         <v>117</v>
       </c>
@@ -12318,9 +12321,9 @@
         <v>591</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7">
       <c r="A375" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B375" t="s">
         <v>67</v>
@@ -12338,12 +12341,12 @@
         <v>-1</v>
       </c>
       <c r="G375" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
       <c r="A376" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B376" t="s">
         <v>67</v>
@@ -12361,10 +12364,10 @@
         <v>-1</v>
       </c>
       <c r="G376" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
       <c r="A377" t="s">
         <v>116</v>
       </c>
@@ -12384,10 +12387,10 @@
         <v>-1</v>
       </c>
       <c r="G377" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
       <c r="A378" t="s">
         <v>109</v>
       </c>
@@ -12410,7 +12413,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7">
       <c r="A379" t="s">
         <v>132</v>
       </c>
@@ -12430,15 +12433,15 @@
         <v>-2</v>
       </c>
       <c r="G379" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
       <c r="A380" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B380" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C380" t="s">
         <v>8</v>
@@ -12453,15 +12456,15 @@
         <v>3</v>
       </c>
       <c r="G380" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
       <c r="A381" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B381" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C381" t="s">
         <v>21</v>
@@ -12476,15 +12479,15 @@
         <v>2</v>
       </c>
       <c r="G381" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
       <c r="A382" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B382" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C382" t="s">
         <v>63</v>
@@ -12499,15 +12502,15 @@
         <v>2</v>
       </c>
       <c r="G382" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
       <c r="A383" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B383" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C383" t="s">
         <v>26</v>
@@ -12522,15 +12525,15 @@
         <v>2</v>
       </c>
       <c r="G383" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
       <c r="A384" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B384" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C384" t="s">
         <v>15</v>
@@ -12545,15 +12548,15 @@
         <v>2</v>
       </c>
       <c r="G384" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7">
       <c r="A385" t="s">
+        <v>789</v>
+      </c>
+      <c r="B385" t="s">
         <v>790</v>
-      </c>
-      <c r="B385" t="s">
-        <v>791</v>
       </c>
       <c r="C385" t="s">
         <v>13</v>
@@ -12568,15 +12571,15 @@
         <v>1</v>
       </c>
       <c r="G385" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7">
       <c r="A386" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B386" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C386" t="s">
         <v>10</v>
@@ -12591,15 +12594,15 @@
         <v>1</v>
       </c>
       <c r="G386" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
+      <c r="A387" t="s">
         <v>867</v>
       </c>
-    </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>868</v>
-      </c>
       <c r="B387" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C387" t="s">
         <v>10</v>
@@ -12614,15 +12617,15 @@
         <v>1</v>
       </c>
       <c r="G387" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7">
       <c r="A388" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B388" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C388" t="s">
         <v>22</v>
@@ -12637,15 +12640,15 @@
         <v>1</v>
       </c>
       <c r="G388" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7">
       <c r="A389" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B389" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C389" t="s">
         <v>22</v>
@@ -12660,15 +12663,15 @@
         <v>1</v>
       </c>
       <c r="G389" t="s">
-        <v>894</v>
-      </c>
-    </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7">
       <c r="A390" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B390" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C390" t="s">
         <v>28</v>
@@ -12683,15 +12686,15 @@
         <v>1</v>
       </c>
       <c r="G390" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7">
       <c r="A391" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B391" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C391" t="s">
         <v>16</v>
@@ -12706,15 +12709,15 @@
         <v>1</v>
       </c>
       <c r="G391" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
       <c r="A392" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="B392" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C392" t="s">
         <v>51</v>
@@ -12729,15 +12732,15 @@
         <v>1</v>
       </c>
       <c r="G392" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7">
       <c r="A393" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B393" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C393" t="s">
         <v>34</v>
@@ -12752,15 +12755,15 @@
         <v>1</v>
       </c>
       <c r="G393" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7">
       <c r="A394" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B394" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C394" t="s">
         <v>13</v>
@@ -12775,15 +12778,15 @@
         <v>-1</v>
       </c>
       <c r="G394" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7">
       <c r="A395" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B395" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C395" t="s">
         <v>37</v>
@@ -12798,15 +12801,15 @@
         <v>-1</v>
       </c>
       <c r="G395" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7">
       <c r="A396" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B396" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C396" t="s">
         <v>19</v>
@@ -12821,15 +12824,15 @@
         <v>-1</v>
       </c>
       <c r="G396" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7">
       <c r="A397" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B397" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C397" t="s">
         <v>21</v>
@@ -12844,15 +12847,15 @@
         <v>-1</v>
       </c>
       <c r="G397" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7">
       <c r="A398" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B398" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C398" t="s">
         <v>15</v>
@@ -12867,15 +12870,15 @@
         <v>-1</v>
       </c>
       <c r="G398" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7">
+      <c r="A399" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A399" t="s">
-        <v>1032</v>
-      </c>
       <c r="B399" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C399" t="s">
         <v>32</v>
@@ -12890,15 +12893,15 @@
         <v>-1</v>
       </c>
       <c r="G399" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7">
       <c r="A400" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B400" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C400" t="s">
         <v>68</v>
@@ -12913,10 +12916,10 @@
         <v>-2</v>
       </c>
       <c r="G400" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7">
       <c r="A401" t="s">
         <v>279</v>
       </c>
@@ -12936,12 +12939,12 @@
         <v>2</v>
       </c>
       <c r="G401" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7">
       <c r="A402" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B402" t="s">
         <v>64</v>
@@ -12959,12 +12962,12 @@
         <v>2</v>
       </c>
       <c r="G402" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7">
       <c r="A403" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B403" t="s">
         <v>64</v>
@@ -12982,10 +12985,10 @@
         <v>1</v>
       </c>
       <c r="G403" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7">
       <c r="A404" t="s">
         <v>209</v>
       </c>
@@ -13005,10 +13008,10 @@
         <v>1</v>
       </c>
       <c r="G404" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7">
       <c r="A405" t="s">
         <v>280</v>
       </c>
@@ -13028,12 +13031,12 @@
         <v>1</v>
       </c>
       <c r="G405" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7">
       <c r="A406" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B406" t="s">
         <v>64</v>
@@ -13051,12 +13054,12 @@
         <v>1</v>
       </c>
       <c r="G406" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7">
       <c r="A407" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B407" t="s">
         <v>64</v>
@@ -13074,9 +13077,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7">
       <c r="A408" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B408" t="s">
         <v>64</v>
@@ -13094,12 +13097,12 @@
         <v>-1</v>
       </c>
       <c r="G408" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7">
       <c r="A409" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B409" t="s">
         <v>64</v>
@@ -13117,12 +13120,12 @@
         <v>-1</v>
       </c>
       <c r="G409" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7">
       <c r="A410" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B410" t="s">
         <v>64</v>
@@ -13140,12 +13143,12 @@
         <v>-1</v>
       </c>
       <c r="G410" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7">
       <c r="A411" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B411" t="s">
         <v>64</v>
@@ -13163,12 +13166,12 @@
         <v>-1</v>
       </c>
       <c r="G411" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7">
       <c r="A412" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B412" t="s">
         <v>64</v>
@@ -13186,10 +13189,10 @@
         <v>-1</v>
       </c>
       <c r="G412" t="s">
-        <v>896</v>
-      </c>
-    </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7">
       <c r="A413" t="s">
         <v>251</v>
       </c>
@@ -13209,10 +13212,10 @@
         <v>-1</v>
       </c>
       <c r="G413" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7">
       <c r="A414" t="s">
         <v>221</v>
       </c>
@@ -13232,12 +13235,12 @@
         <v>-2</v>
       </c>
       <c r="G414" t="s">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7">
       <c r="A415" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B415" t="s">
         <v>64</v>
@@ -13255,12 +13258,12 @@
         <v>-2</v>
       </c>
       <c r="G415" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7">
       <c r="A416" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B416" t="s">
         <v>64</v>
@@ -13278,15 +13281,15 @@
         <v>-2</v>
       </c>
       <c r="G416" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7">
       <c r="A417" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B417" t="s">
         <v>1038</v>
-      </c>
-      <c r="B417" t="s">
-        <v>1039</v>
       </c>
       <c r="C417" t="s">
         <v>304</v>
@@ -13301,10 +13304,10 @@
         <v>-3</v>
       </c>
       <c r="G417" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7">
       <c r="A418" t="s">
         <v>112</v>
       </c>
@@ -13324,12 +13327,12 @@
         <v>2</v>
       </c>
       <c r="G418" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7">
       <c r="A419" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B419" t="s">
         <v>111</v>
@@ -13347,12 +13350,12 @@
         <v>2</v>
       </c>
       <c r="G419" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7">
       <c r="A420" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B420" t="s">
         <v>111</v>
@@ -13370,10 +13373,10 @@
         <v>1</v>
       </c>
       <c r="G420" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7">
       <c r="A421" t="s">
         <v>204</v>
       </c>
@@ -13393,12 +13396,12 @@
         <v>1</v>
       </c>
       <c r="G421" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7">
       <c r="A422" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B422" t="s">
         <v>111</v>
@@ -13416,12 +13419,12 @@
         <v>1</v>
       </c>
       <c r="G422" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7">
       <c r="A423" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B423" t="s">
         <v>111</v>
@@ -13439,10 +13442,10 @@
         <v>1</v>
       </c>
       <c r="G423" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7">
       <c r="A424" t="s">
         <v>257</v>
       </c>
@@ -13462,12 +13465,12 @@
         <v>0</v>
       </c>
       <c r="G424" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7">
       <c r="A425" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B425" t="s">
         <v>111</v>
@@ -13485,9 +13488,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7">
       <c r="A426" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B426" t="s">
         <v>111</v>
@@ -13505,9 +13508,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7">
       <c r="A427" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B427" t="s">
         <v>111</v>
@@ -13525,10 +13528,10 @@
         <v>-1</v>
       </c>
       <c r="G427" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7">
       <c r="A428" t="s">
         <v>114</v>
       </c>
@@ -13548,10 +13551,10 @@
         <v>-1</v>
       </c>
       <c r="G428" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7">
       <c r="A429" t="s">
         <v>236</v>
       </c>
@@ -13571,10 +13574,10 @@
         <v>-1</v>
       </c>
       <c r="G429" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7">
       <c r="A430" t="s">
         <v>241</v>
       </c>
@@ -13594,10 +13597,10 @@
         <v>-1</v>
       </c>
       <c r="G430" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7">
       <c r="A431" t="s">
         <v>223</v>
       </c>
@@ -13617,10 +13620,10 @@
         <v>-1</v>
       </c>
       <c r="G431" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7">
       <c r="A432" t="s">
         <v>188</v>
       </c>
@@ -13640,12 +13643,12 @@
         <v>-1</v>
       </c>
       <c r="G432" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7">
       <c r="A433" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B433" t="s">
         <v>111</v>
@@ -13663,12 +13666,12 @@
         <v>-1</v>
       </c>
       <c r="G433" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7">
       <c r="A434" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B434" t="s">
         <v>111</v>
@@ -13686,10 +13689,10 @@
         <v>-1</v>
       </c>
       <c r="G434" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7">
       <c r="A435" t="s">
         <v>154</v>
       </c>
@@ -13709,10 +13712,10 @@
         <v>-1</v>
       </c>
       <c r="G435" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7">
       <c r="A436" t="s">
         <v>263</v>
       </c>
@@ -13735,7 +13738,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7">
       <c r="A437" t="s">
         <v>138</v>
       </c>
@@ -13755,12 +13758,12 @@
         <v>-3</v>
       </c>
       <c r="G437" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7">
       <c r="A438" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B438" t="s">
         <v>202</v>
@@ -13778,9 +13781,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7">
       <c r="A439" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B439" t="s">
         <v>202</v>
@@ -13798,7 +13801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7">
       <c r="A440" t="s">
         <v>355</v>
       </c>
@@ -13818,7 +13821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7">
       <c r="A441" t="s">
         <v>233</v>
       </c>
@@ -13838,10 +13841,10 @@
         <v>2</v>
       </c>
       <c r="G441" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7">
       <c r="A442" t="s">
         <v>238</v>
       </c>
@@ -13861,12 +13864,12 @@
         <v>1</v>
       </c>
       <c r="G442" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7">
       <c r="A443" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B443" t="s">
         <v>11</v>
@@ -13884,10 +13887,10 @@
         <v>1</v>
       </c>
       <c r="G443" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7">
       <c r="A444" t="s">
         <v>207</v>
       </c>
@@ -13907,12 +13910,12 @@
         <v>1</v>
       </c>
       <c r="G444" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7">
       <c r="A445" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B445" t="s">
         <v>11</v>
@@ -13930,12 +13933,12 @@
         <v>1</v>
       </c>
       <c r="G445" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7">
       <c r="A446" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B446" t="s">
         <v>11</v>
@@ -13953,10 +13956,10 @@
         <v>1</v>
       </c>
       <c r="G446" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7">
       <c r="A447" t="s">
         <v>163</v>
       </c>
@@ -13976,12 +13979,12 @@
         <v>1</v>
       </c>
       <c r="G447" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7">
       <c r="A448" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B448" t="s">
         <v>11</v>
@@ -13999,10 +14002,10 @@
         <v>1</v>
       </c>
       <c r="G448" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7">
       <c r="A449" t="s">
         <v>358</v>
       </c>
@@ -14022,10 +14025,10 @@
         <v>-1</v>
       </c>
       <c r="G449" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7">
       <c r="A450" t="s">
         <v>128</v>
       </c>
@@ -14045,10 +14048,10 @@
         <v>-1</v>
       </c>
       <c r="G450" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7">
       <c r="A451" t="s">
         <v>266</v>
       </c>
@@ -14068,12 +14071,12 @@
         <v>-1</v>
       </c>
       <c r="G451" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7">
       <c r="A452" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B452" t="s">
         <v>11</v>
@@ -14091,10 +14094,10 @@
         <v>-1</v>
       </c>
       <c r="G452" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7">
       <c r="A453" t="s">
         <v>205</v>
       </c>
@@ -14102,7 +14105,7 @@
         <v>348</v>
       </c>
       <c r="C453" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D453" t="s">
         <v>9</v>
@@ -14114,9 +14117,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7">
       <c r="A454" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B454" t="s">
         <v>59</v>
@@ -14134,10 +14137,10 @@
         <v>1</v>
       </c>
       <c r="G454" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7">
       <c r="A455" t="s">
         <v>152</v>
       </c>
@@ -14157,21 +14160,21 @@
         <v>0</v>
       </c>
       <c r="G455" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7">
       <c r="A456" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B456" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C456" t="s">
         <v>8</v>
       </c>
       <c r="D456" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="E456">
         <v>65</v>
@@ -14180,12 +14183,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7">
       <c r="A457" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B457" t="s">
         <v>1052</v>
-      </c>
-      <c r="B457" t="s">
-        <v>1053</v>
       </c>
       <c r="C457" t="s">
         <v>8</v>
@@ -14200,15 +14203,15 @@
         <v>-2</v>
       </c>
       <c r="G457" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7">
       <c r="A458" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B458" t="s">
         <v>1110</v>
-      </c>
-      <c r="B458" t="s">
-        <v>1111</v>
       </c>
       <c r="C458" t="s">
         <v>69</v>
@@ -14223,9 +14226,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7">
       <c r="A459" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B459" t="s">
         <v>44</v>
@@ -14243,10 +14246,10 @@
         <v>2</v>
       </c>
       <c r="G459" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7">
       <c r="A460" t="s">
         <v>250</v>
       </c>
@@ -14266,12 +14269,12 @@
         <v>2</v>
       </c>
       <c r="G460" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7">
+      <c r="A461" t="s">
         <v>705</v>
-      </c>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A461" t="s">
-        <v>706</v>
       </c>
       <c r="B461" t="s">
         <v>44</v>
@@ -14289,10 +14292,10 @@
         <v>2</v>
       </c>
       <c r="G461" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7">
       <c r="A462" t="s">
         <v>448</v>
       </c>
@@ -14315,7 +14318,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7">
       <c r="A463" t="s">
         <v>538</v>
       </c>
@@ -14338,7 +14341,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7">
       <c r="A464" t="s">
         <v>252</v>
       </c>
@@ -14358,12 +14361,12 @@
         <v>1</v>
       </c>
       <c r="G464" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7">
       <c r="A465" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B465" t="s">
         <v>44</v>
@@ -14372,7 +14375,7 @@
         <v>50</v>
       </c>
       <c r="D465" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="E465">
         <v>79</v>
@@ -14381,9 +14384,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7">
       <c r="A466" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B466" t="s">
         <v>44</v>
@@ -14392,7 +14395,7 @@
         <v>50</v>
       </c>
       <c r="D466" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E466">
         <v>70</v>
@@ -14401,7 +14404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7">
       <c r="A467" t="s">
         <v>211</v>
       </c>
@@ -14424,7 +14427,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7">
       <c r="A468" t="s">
         <v>451</v>
       </c>
@@ -14447,7 +14450,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7">
       <c r="A469" t="s">
         <v>514</v>
       </c>
@@ -14470,7 +14473,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7">
       <c r="A470" t="s">
         <v>269</v>
       </c>
@@ -14493,7 +14496,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7">
       <c r="A471" t="s">
         <v>286</v>
       </c>
@@ -14513,10 +14516,10 @@
         <v>-1</v>
       </c>
       <c r="G471" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7">
       <c r="A472" t="s">
         <v>206</v>
       </c>
@@ -14539,7 +14542,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7">
       <c r="A473" t="s">
         <v>231</v>
       </c>
@@ -14562,7 +14565,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7">
       <c r="A474" t="s">
         <v>423</v>
       </c>
@@ -14585,7 +14588,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7">
       <c r="A475" t="s">
         <v>310</v>
       </c>
@@ -14608,7 +14611,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7">
       <c r="A476" t="s">
         <v>165</v>
       </c>
@@ -14631,7 +14634,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7">
       <c r="A477" t="s">
         <v>592</v>
       </c>
@@ -14654,9 +14657,9 @@
         <v>593</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7">
       <c r="A478" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B478" t="s">
         <v>58</v>
@@ -14674,10 +14677,10 @@
         <v>1</v>
       </c>
       <c r="G478" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7">
       <c r="A479" t="s">
         <v>305</v>
       </c>
@@ -14697,10 +14700,10 @@
         <v>1</v>
       </c>
       <c r="G479" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7">
       <c r="A480" t="s">
         <v>360</v>
       </c>
@@ -14723,9 +14726,9 @@
         <v>551</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7">
       <c r="A481" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B481" t="s">
         <v>58</v>
@@ -14743,7 +14746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7">
       <c r="A482" t="s">
         <v>289</v>
       </c>
@@ -14766,7 +14769,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7">
       <c r="A483" t="s">
         <v>493</v>
       </c>
@@ -14789,7 +14792,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7">
       <c r="A484" t="s">
         <v>294</v>
       </c>
@@ -14812,9 +14815,9 @@
         <v>507</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7">
       <c r="A485" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B485" t="s">
         <v>58</v>
@@ -14832,10 +14835,10 @@
         <v>-1</v>
       </c>
       <c r="G485" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7">
       <c r="A486" t="s">
         <v>190</v>
       </c>
@@ -14855,12 +14858,12 @@
         <v>-1</v>
       </c>
       <c r="G486" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7">
       <c r="A487" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B487" t="s">
         <v>58</v>
@@ -14878,12 +14881,12 @@
         <v>-1</v>
       </c>
       <c r="G487" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7">
       <c r="A488" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B488" t="s">
         <v>58</v>
@@ -14901,10 +14904,10 @@
         <v>-1</v>
       </c>
       <c r="G488" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7">
       <c r="A489" t="s">
         <v>195</v>
       </c>
@@ -14924,10 +14927,10 @@
         <v>-1</v>
       </c>
       <c r="G489" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7">
       <c r="A490" t="s">
         <v>177</v>
       </c>
@@ -14950,7 +14953,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7">
       <c r="A491" t="s">
         <v>312</v>
       </c>
@@ -14973,7 +14976,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7">
       <c r="A492" t="s">
         <v>157</v>
       </c>
@@ -14993,10 +14996,10 @@
         <v>-2</v>
       </c>
       <c r="G492" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7">
       <c r="A493" t="s">
         <v>261</v>
       </c>
@@ -15016,10 +15019,10 @@
         <v>2</v>
       </c>
       <c r="G493" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7">
       <c r="A494" t="s">
         <v>217</v>
       </c>
@@ -15042,7 +15045,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7">
       <c r="A495" t="s">
         <v>254</v>
       </c>
@@ -15062,10 +15065,10 @@
         <v>1</v>
       </c>
       <c r="G495" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7">
       <c r="A496" t="s">
         <v>255</v>
       </c>
@@ -15085,12 +15088,12 @@
         <v>1</v>
       </c>
       <c r="G496" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7">
       <c r="A497" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B497" t="s">
         <v>27</v>
@@ -15108,10 +15111,10 @@
         <v>1</v>
       </c>
       <c r="G497" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7">
       <c r="A498" t="s">
         <v>264</v>
       </c>
@@ -15131,12 +15134,12 @@
         <v>1</v>
       </c>
       <c r="G498" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7">
       <c r="A499" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B499" t="s">
         <v>27</v>
@@ -15154,7 +15157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7">
       <c r="A500" t="s">
         <v>237</v>
       </c>
@@ -15174,9 +15177,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7">
       <c r="A501" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B501" t="s">
         <v>27</v>
@@ -15194,9 +15197,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7">
       <c r="A502" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B502" t="s">
         <v>27</v>
@@ -15214,9 +15217,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7">
       <c r="A503" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B503" t="s">
         <v>27</v>
@@ -15225,7 +15228,7 @@
         <v>51</v>
       </c>
       <c r="D503" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="E503">
         <v>66</v>
@@ -15234,7 +15237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7">
       <c r="A504" t="s">
         <v>430</v>
       </c>
@@ -15257,7 +15260,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7">
       <c r="A505" t="s">
         <v>222</v>
       </c>
@@ -15280,7 +15283,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7">
       <c r="A506" t="s">
         <v>567</v>
       </c>
@@ -15303,7 +15306,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7">
       <c r="A507" t="s">
         <v>379</v>
       </c>
@@ -15326,7 +15329,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7">
       <c r="A508" t="s">
         <v>638</v>
       </c>
@@ -15354,5 +15357,10 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>